--- a/review.xlsx
+++ b/review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,10 +511,8 @@
           <t>Lord of the Rings: The Two Towers</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C4" t="n">
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -524,6 +522,93 @@
       </c>
       <c r="E4" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Devil's Reign</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pretty good
+</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lord of the Rings: Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Great read</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amazing stuff</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Civil War</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Super fun book, amazing characters and story</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
